--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -575,7 +575,7 @@
         <v>44958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45539</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44512</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44552</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45877</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>45790</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45883.41177083334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45290.63932870371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45817</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>46030.60471064815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45538.31063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45369.55047453703</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>45342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>45722</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44274</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45751</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>45208</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45931.59987268518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45678.63605324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>46021.95730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>45877</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>45678.65004629629</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45678.62517361111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>45229</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45798</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>45827.37033564815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45876</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45940.46645833334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45861.33072916666</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45342</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45967.6815162037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>46036.58131944444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>46036.51528935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>46047</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44908</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45796</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>44453</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44996</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45232.45802083334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45876</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44950</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>46045.63675925926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>46050.53731481481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>45369.51660879629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44874</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>44362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>45251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45432.43915509259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44463</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44505</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>45541.64898148148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>44420</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44705</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44454</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>44469.33269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>45258</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45799</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45177</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45251</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45819.66582175926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>45497.8249074074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45090</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44789.67186342592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>45950.51105324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45793</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>45841</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45954.67348379629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44798</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>45952</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>45967.67916666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>46028.69642361111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45742.62967592593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>46035.40274305556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>46036.59011574074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>45427.56424768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>46036.62027777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>46020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>46029.30613425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>46029.68619212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45678.55945601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>46050.46430555556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>46024</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45062</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44356.46612268518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44575</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44827.49356481482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>44886</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>44799</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44623</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44286</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44287</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44458.91336805555</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44337.55547453704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44399</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44687.38893518518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44305</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44742.52768518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44733</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44425.46491898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44337.57040509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44301.42034722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44389</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44673</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44435.51628472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44279</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44376</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44589.62333333334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44691.40365740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>44466</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>44505</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44399</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44630.62027777778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44747.4846875</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44461</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>44664.33770833333</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44670.61141203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44354.60869212963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44307.38413194445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44494</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44510</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44498.59743055556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44342.48758101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44438</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44487</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44293</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44804</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44832</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44532.61158564815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44781.47965277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44587</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44792</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44805</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44798</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44792</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44452</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44280</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44384</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44799</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44742.52592592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>44546.58559027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44341</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44337.3552662037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44341.47728009259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44273.52013888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44713</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44579</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44495</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44705</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>45534.46560185185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45534.46862268518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45252.50012731482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45369.58125</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44785.59181712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44929.6525</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>45489.65583333333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>45215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45016</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44837</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44679.54954861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>45213</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>45183.62677083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44606.54209490741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>45425</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44747.36041666667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>45246</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>45569.60569444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45586.55450231482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45559.58381944444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45559.59444444445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>45475.39222222222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45110</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>45110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>45308</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>45799</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>45798</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>45798</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>45565.78232638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>45259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>45536.65696759259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>45536.66635416666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>45163</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>45798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>45803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>45260.38826388889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44613.34505787037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44824.35642361111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45804.5856712963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45580.56954861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45208.53342592593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45811.58952546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45239.43166666666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44992</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44992</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>45890.43620370371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>45281</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45812.44297453704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45475.38892361111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45891</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45813</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45891.36770833333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45813.62518518518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45693.43435185185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45656.42575231481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45246</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45813.91087962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45664.53787037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>45264.36013888889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>45670.40074074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45477.50732638889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45167.4177199074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44537.4658449074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45820.6316087963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45903.5753125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45447.90041666666</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44917.57221064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>45099</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45526</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>45470</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45694.67778935185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45915</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45831.36956018519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>45833.69518518518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>45632</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45384.60384259259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>45341.68972222223</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>45929.55321759259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>45929.56319444445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>45215</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>45839.35089120371</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44987.42900462963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44867</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44704.390625</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45939.32263888889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45117</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45369.40248842593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44494</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45517.33768518519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45527.35987268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45299.66493055555</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44610</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45947</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>45202</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45950.59743055556</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45950.61881944445</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45861.33846064815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45861.44006944444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45952.67065972222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44999</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>45237</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>45358</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>45954.41559027778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>45957.38642361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>45954.57519675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>45873.39715277778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>45536.67121527778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>45223.35689814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45223</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45873.43974537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45873.39479166667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45954.44155092593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45958.50596064814</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45437.55819444444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>45874</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>45875.92728009259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45875.93337962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45875.93008101852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45958.49377314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45267.50777777778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>45877.53936342592</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>45880.65918981482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45880.65695601852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44337.31189814815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45182.63990740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45946.34670138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45880.64846064815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45709</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45966.68452546297</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45883.57024305555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45258</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45882.56737268518</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44977</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45974.45929398148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44529</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45978.53640046297</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45184</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45607.37652777778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45981.42581018519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45116</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45981.42233796296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>45139</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44264.51380787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>46027.63039351852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45982.43648148148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>45688</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>46029.38891203704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>46028.70322916667</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>46029.67885416667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45707.56586805556</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>45986.60123842592</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>46030.60996527778</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>46030.61505787037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>45036</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>45194</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>46030.63354166667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>46021.94106481481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         <v>46030.67846064815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         <v>46020</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>46020</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>46034.35226851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>46035.56564814815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>46034.45421296296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>46035.56457175926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44280</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>46021</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44732.41245370371</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44274</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>46036.52232638889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>46036.54097222222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44498.61825231482</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>46036.4325</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44565</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>46035</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>46036.52315972222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>46037.36643518518</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>46029</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>46029</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>45258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44981</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>45575.36628472222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>46036.46664351852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45439.35818287037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45624.90174768519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45342</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>45999.40050925926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>46036.68357638889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>45664.41989583334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44992.38239583333</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>46021</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>46038.45591435185</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>46043.37614583333</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>45687.86734953704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>46042.49667824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45551.4868287037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45617.48462962963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45692.36865740741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>45566.36052083333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45261</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
         <v>45742.66197916667</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>45512.80895833333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>46044.61814814815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>46002.61444444444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44421.50993055556</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44942.31047453704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>46049.58636574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>46049.59396990741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>46048.56770833334</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44299</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>46047.35318287037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>46051.67444444444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>46036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45232.45122685185</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>46035</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>46036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>46055.59050925926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>46036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>46055.65570601852</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>46055.65700231482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>46036</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>46055.58623842592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>46047</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44992</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>46056.67898148148</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>46041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>46056.68216435185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>46056.52616898148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>46056.52474537037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45251.58048611111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>46036.61548611111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>44879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>46057.48369212963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44494.46709490741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>45541.62574074074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>45541.64743055555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>46042.58100694444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>46058.50585648148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45671.34664351852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>46058.50805555555</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>46058.48155092593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>46058.51002314815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45411.59621527778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44438</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45719.65857638889</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>44384</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>44493</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27843,7 +27843,7 @@
         <v>45702.44947916667</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>45411.58637731482</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44500</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44420</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44244</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>44601</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45631.47834490741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45744.49254629629</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45068.77065972222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45672</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>45477.51149305556</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>44987</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45666.93782407408</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44755</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>44799</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45719.64394675926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45091.55979166667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>45757.63572916666</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45401.53269675926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45273.60155092592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45485.66295138889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45485.71377314815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45709.50549768518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>45251</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>45666.96104166667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45223</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>44438</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44524</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44837.57366898148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>45643.32780092592</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45054.62822916666</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>45342.56981481481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>45258.38181712963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>45188</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>45542.82690972222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>45076.51174768519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44526.3409375</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45384.61032407408</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44550.27520833333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44972</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44294.6346412037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45392.40825231482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45617</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>45258</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>45210.33983796297</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45294.41001157407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45146</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44467</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45405.60082175926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>45572.47766203704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>45485.66964120371</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>45572.44064814815</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>45569.32403935185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>44308</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>45163</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>45436</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45692.61747685185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>45517.33597222222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45607.29688657408</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44393</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45783.91428240741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>45653.43668981481</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>45709.60369212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>45736.5049537037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>45068</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>45568</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>45054.62554398148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>45632.5812962963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>45796.44989583334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>45770</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -575,7 +575,7 @@
         <v>44958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45539</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44512</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44552</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45877</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>45790</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45883.41177083334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45290.63932870371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45817</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>46030.60471064815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45538.31063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45369.55047453703</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>45342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>45722</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44274</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45751</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>45208</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45931.59987268518</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45678.63605324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>46021.95730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>45877</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>45678.65004629629</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45678.62517361111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>45229</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45798</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>45827.37033564815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45876</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45940.46645833334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45861.33072916666</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45342</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>45967.6815162037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>46036.58131944444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>46036.51528935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>46047</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44908</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45796</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>44453</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44996</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45232.45802083334</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45876</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44950</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45068</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>46045.63675925926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>46050.53731481481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>45369.51660879629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44874</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>44362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5469,7 +5469,7 @@
         <v>45251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45432.43915509259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44463</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44505</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>45541.64898148148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>44420</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44705</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44454</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>44469.33269675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>45258</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45799</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45177</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45251</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45819.66582175926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>45497.8249074074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45090</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44789.67186342592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>45950.51105324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45793</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>45841</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45954.67348379629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>44798</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>45952</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>45967.67916666667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>46028.69642361111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45742.62967592593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>46035.40274305556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>46036.59011574074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>45427.56424768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>46036.62027777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>46020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>46029.30613425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>46029.68619212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45678.55945601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>46050.46430555556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>46024</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45062</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44356.46612268518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44575</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44827.49356481482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>44886</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>44799</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44623</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44286</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44287</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44458.91336805555</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44337.55547453704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44399</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44687.38893518518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44305</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44742.52768518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44733</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44425.46491898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44337.57040509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44301.42034722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>44371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>44389</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44673</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44435.51628472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44279</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44376</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44589.62333333334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>44691.40365740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>44466</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>44505</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44399</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44630.62027777778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>44747.4846875</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44461</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>44664.33770833333</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44670.61141203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>44354.60869212963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44307.38413194445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44494</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44510</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>44498.59743055556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>44494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44342.48758101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44438</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44487</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44293</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44804</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44832</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44532.61158564815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44781.47965277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44587</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44792</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44805</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44798</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44792</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44452</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44427</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>44280</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>44384</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>44454</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44799</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44742.52592592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>44546.58559027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44341</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44337.3552662037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44341.47728009259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44452</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44273.52013888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44713</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44579</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44495</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44705</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>45534.46560185185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45534.46862268518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45252.50012731482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45369.58125</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44785.59181712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44929.6525</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>45489.65583333333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>45215</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45016</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44837</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44679.54954861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>45213</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>45183.62677083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44606.54209490741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>45425</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44747.36041666667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>45246</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>45569.60569444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45586.55450231482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>45559.58381944444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>45559.59444444445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44494</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>45140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>45475.39222222222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45110</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>45110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>45308</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>45799</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>45798</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>45798</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>45565.78232638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>45259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>45536.65696759259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>45536.66635416666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>45163</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>45798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>45803</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>45260.38826388889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44613.34505787037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44824.35642361111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45804.5856712963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45580.56954861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45644</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>45208.53342592593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45811.58952546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>45239.43166666666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44992</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44992</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>45890.43620370371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>45281</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45812.44297453704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45475.38892361111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45891</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45813</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45891.36770833333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45813.62518518518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45693.43435185185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45656.42575231481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45246</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45813.91087962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45664.53787037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>45264.36013888889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>45670.40074074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45477.50732638889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45167.4177199074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44537.4658449074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45820.6316087963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>45903.5753125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45447.90041666666</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>44917.57221064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>45099</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45526</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>45470</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45694.67778935185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45915</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45831.36956018519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>45833.69518518518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>45632</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45384.60384259259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>45079</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>45341.68972222223</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>45929.55321759259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>45929.56319444445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>45215</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>45839.35089120371</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44987.42900462963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44867</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44704.390625</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>45939.32263888889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>45117</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45369.40248842593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44494</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45517.33768518519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45527.35987268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45299.66493055555</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>44610</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45947</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>45202</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45950.59743055556</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45950.61881944445</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45861.33846064815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>45861.44006944444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19121,7 +19121,7 @@
         <v>45952.67065972222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44999</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>45237</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>45358</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>45954.41559027778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>45957.38642361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>45954.57519675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>45873.39715277778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>45536.67121527778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>45223.35689814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45223</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45873.43974537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45873.39479166667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45954.44155092593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45958.50596064814</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45437.55819444444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>45874</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>45875.92728009259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45875.93337962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45875.93008101852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45958.49377314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45267.50777777778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>45877.53936342592</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>45880.65918981482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45880.65695601852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>44337.31189814815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45182.63990740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45946.34670138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45880.64846064815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45709</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45966.68452546297</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45883.57024305555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45258</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45882.56737268518</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44977</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45974.45929398148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44529</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45978.53640046297</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44977</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45184</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45607.37652777778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45981.42581018519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45116</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45981.42233796296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>45139</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44264.51380787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>46027.63039351852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45982.43648148148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>45688</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>46029.38891203704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>46028.70322916667</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>46029.67885416667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>45707.56586805556</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>45986.60123842592</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>46030.60996527778</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>46030.61505787037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>45036</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>45194</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>46030.63354166667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>46021.94106481481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         <v>46030.67846064815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         <v>46020</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>46020</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>46034.35226851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>46035.56564814815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>46034.45421296296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>46035.56457175926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44280</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>46021</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44732.41245370371</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44274</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>46036.52232638889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>46036.54097222222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44498.61825231482</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>46036.4325</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44565</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>46035</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>46036.52315972222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>46037.36643518518</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>46029</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>46029</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>45258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44981</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>45575.36628472222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>46036.46664351852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45439.35818287037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45624.90174768519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45342</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>45999.40050925926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>46036.68357638889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
         <v>45664.41989583334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44992.38239583333</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         <v>46021</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
         <v>46038.45591435185</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>46043.37614583333</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>45687.86734953704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>46042.49667824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45551.4868287037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45617.48462962963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45692.36865740741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>45566.36052083333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>45261</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
         <v>45742.66197916667</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>45512.80895833333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>46044.61814814815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>46002.61444444444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>44421.50993055556</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44942.31047453704</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>46049.58636574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>46049.59396990741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>46048.56770833334</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44299</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>46047.35318287037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>46051.67444444444</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>46036</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45232.45122685185</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44468</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>46035</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>46036</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>46055.59050925926</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>46036</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>46055.65570601852</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>46055.65700231482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>46036</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>46055.58623842592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>46047</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>44992</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>46056.67898148148</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>46041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>46056.68216435185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>46056.52616898148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>46056.52474537037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45251.58048611111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>46036.61548611111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>44879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>46057.48369212963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>44494.46709490741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27097,7 +27097,7 @@
         <v>45541.62574074074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>45541.64743055555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>46042.58100694444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>46058.50585648148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45671.34664351852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>46058.50805555555</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>46058.48155092593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>46058.51002314815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45411.59621527778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44438</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45719.65857638889</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27729,7 +27729,7 @@
         <v>44384</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27786,7 +27786,7 @@
         <v>44493</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27843,7 +27843,7 @@
         <v>45702.44947916667</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>45411.58637731482</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>44500</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44420</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44244</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>44601</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45631.47834490741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45744.49254629629</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45068.77065972222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45672</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>45477.51149305556</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>44987</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45666.93782407408</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44755</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>44799</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45719.64394675926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45091.55979166667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>45757.63572916666</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45401.53269675926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45273.60155092592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45485.66295138889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45485.71377314815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45709.50549768518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>45251</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>45666.96104166667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45223</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>44438</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44524</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>44837.57366898148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>45643.32780092592</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>45054.62822916666</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>45342.56981481481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>45258.38181712963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>45188</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>45542.82690972222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>45076.51174768519</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44526.3409375</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45384.61032407408</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44550.27520833333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44972</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44294.6346412037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45392.40825231482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45617</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>45258</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>45210.33983796297</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>45294.41001157407</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45146</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>44467</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45405.60082175926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>45572.47766203704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>45485.66964120371</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>45572.44064814815</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>45569.32403935185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>44308</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         <v>45163</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31189,7 +31189,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
         <v>45436</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>45692.61747685185</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>45819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>45517.33597222222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31489,7 +31489,7 @@
         <v>45607.29688657408</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
         <v>44393</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>45783.91428240741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>45653.43668981481</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>45709.60369212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>45736.5049537037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>45068</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>45568</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>45054.62554398148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>45632.5812962963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>45796.44989583334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>45770</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -575,7 +575,7 @@
         <v>44958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45539</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44512</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44552</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45877</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>45790</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45883.41177083334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45290.63932870371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45817</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45538.31063657408</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>46047</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>46030.60471064815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45876</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45369.55047453703</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45342</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45722</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44274</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45751</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45678.63605324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>45931.59987268518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>45678.65004629629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>45877</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45678.62517361111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>46021.95730324074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>45229</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>45827.37033564815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45876</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>45861.33072916666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45940.46645833334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45342</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>45967.6815162037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>46036.58131944444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>46036.51528935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44908</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>46070.61984953703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>46073.49243055555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>45796</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>45798</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44996</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>45232.45802083334</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44950</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>45876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45068</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>45074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>46045.63675925926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>46050.53731481481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45369.51660879629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>44874</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44362</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45251</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45432.43915509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44463</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44505</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45541.64898148148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>44705</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44469.33269675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45258</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45177</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45251</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45819.66582175926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45497.8249074074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>45090</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45793</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45841</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44789.67186342592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>44798</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45950.51105324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45954.67348379629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45952</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>45967.67916666667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45742.62967592593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>45427.56424768519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>46035.40274305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>46036.59011574074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>46036.62027777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>46029.30613425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45678.55945601852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>46050.46430555556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>46020</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>46024</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>46070.62511574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>46029.68619212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>45062</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45799</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>44356.46612268518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>44827.49356481482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44799</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>44623</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44575</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44286</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>44305</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>44287</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44458.91336805555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44337.55547453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44742.52768518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>44687.38893518518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>44733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44337.57040509259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>44425.46491898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44301.42034722222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44371</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>44389</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44673</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44435.51628472222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44279</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44376</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44589.62333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44505</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44691.40365740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44832</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44466</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44399</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44630.62027777778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44747.4846875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>44461</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>44664.33770833333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44670.61141203704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44354.60869212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>44441</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>44307.38413194445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44510</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44342.48758101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44498.59743055556</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44487</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44293</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44804</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44832</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44532.61158564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44781.47965277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44587</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44792</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44792</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44452</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44427</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44280</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44384</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44454</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44799</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>44742.52592592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44546.58559027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44341</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44337.3552662037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44273.52013888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>44452</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>44579</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44495</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44705</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45252.50012731482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45534.46560185185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45534.46862268518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45369.58125</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44785.59181712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>45489.65583333333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45016</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45215</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44929.6525</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44679.54954861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45213</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44837</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45183.62677083333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44606.54209490741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45425</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44747.36041666667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45246</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>45569.60569444444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45559.58381944444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45586.55450231482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45559.59444444445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45015</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44494</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>45110</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>45110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>45475.39222222222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>45308</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>45259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45260.38826388889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45536.65696759259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45536.66635416666</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44613.34505787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45163</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44824.35642361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45580.56954861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45208.53342592593</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45475.38892361111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45693.43435185185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45813.91087962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45239.43166666666</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44992</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44992</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45565.78232638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45281</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45656.42575231481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45246</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45664.53787037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45264.36013888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45670.40074074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45477.50732638889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45820.6316087963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>45167.4177199074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44537.4658449074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45447.90041666666</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45890.43620370371</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44917.57221064815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>45099</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>45891</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>45891.36770833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45831.36956018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45833.69518518518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45694.67778935185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45903.5753125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45839.35089120371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44935</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>45632</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>45470</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45384.60384259259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45079</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45517.33768518519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>45341.68972222223</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45915</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44987.42900462963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44867</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45861.33846064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45861.44006944444</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44704.390625</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45369.40248842593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>44494</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45873.39715277778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45873.43974537037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45929.55321759259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45929.56319444445</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45873.39479166667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45527.35987268519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45299.66493055555</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45875.92728009259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45875.93337962963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45875.93008101852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44610</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45877.53936342592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45202</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45880.65918981482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45880.65695601852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>45880.64846064815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45939.32263888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>45883.57024305555</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45882.56737268518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44999</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45358</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45536.67121527778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45223.35689814815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45437.55819444444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45947</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45267.50777777778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45950.59743055556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45950.61881944445</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45952.67065972222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44337.31189814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45182.63990740741</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>45954.41559027778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>45957.38642361111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>45954.57519675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>45954.44155092593</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45958.50596064814</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>45258</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45958.49377314815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>44977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44529</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45946.34670138889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>45709</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44977</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45184</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>45607.37652777778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45116</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45966.68452546297</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45139</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44264.51380787037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45688</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45974.45929398148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45707.56586805556</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45978.53640046297</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>45981.42581018519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45981.42233796296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>45036</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45194</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45982.43648148148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45986.60123842592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44732.41245370371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44274</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44498.61825231482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44565</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>46021.94106481481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45258</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>46034.35226851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>46035.56564814815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44981</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>46034.45421296296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45575.36628472222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>46035.56457175926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45439.35818287037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>46036.54097222222</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45624.90174768519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>45342</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>46036.4325</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>46035</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>46036.52315972222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>46037.36643518518</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>46036.46664351852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45664.41989583334</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44992.38239583333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>45687.86734953704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>45999.40050925926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>46038.45591435185</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45551.4868287037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45617.48462962963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45692.36865740741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>46043.37614583333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>45566.36052083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>45261</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>45742.66197916667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>45512.80895833333</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>46042.49667824074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44421.50993055556</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>46044.61814814815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>46002.61444444444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>44942.31047453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>44299</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>46048.56770833334</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>46051.67444444444</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>45232.45122685185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>44468</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>46036</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>46035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>46036</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>46055.59050925926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>46036</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>46055.65570601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>46055.65700231482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>45251.58048611111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>46055.58623842592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>44879</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44494.46709490741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>46047</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45541.62574074074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45541.64743055555</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45671.34664351852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>46036.61548611111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>46057.48369212963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>46042.58100694444</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45411.59621527778</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>44438</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>46020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>46060.48337962963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45719.65857638889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>46021</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>46020</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44493</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>45702.44947916667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45411.58637731482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44434</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44500</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>46064.62700231482</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44420</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>46056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>46041</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>46067.45509259259</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>46062</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44341.47728009259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>46065</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>46058</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>46066.44671296296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44601</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>46056</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45631.47834490741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45744.49254629629</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>46027.63039351852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>46049</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>46056</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>46071.45515046296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>46071.46274305556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>46056</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>46036</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>46071.66130787037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>46071.53571759259</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45068.77065972222</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>46058</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45672</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>46071.45420138889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45477.51149305556</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>46070.63092592593</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>46047.35318287037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>46029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44987</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>46029.67885416667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>46058</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>46058</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45666.93782407408</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>46049</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>46029.38891203704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>46065</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>46029</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44799</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>46071.46711805555</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>46021</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>46030.61505787037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45719.64394675926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>46072.53517361111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>46036.52232638889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>46030.60996527778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>46030.67846064815</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>46030.63354166667</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>46036</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>46073.37574074074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>46073.38032407407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45091.55979166667</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>45757.63572916666</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45401.53269675926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>45273.60155092592</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>45485.66295138889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>45485.71377314815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>45709.50549768518</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>45251</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>45666.96104166667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45223</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44438</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44524</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44837.57366898148</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45643.32780092592</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>45054.62822916666</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>45342.56981481481</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45258.38181712963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45188</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>45542.82690972222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45076.51174768519</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44526.3409375</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45384.61032407408</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44550.27520833333</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44972</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44294.6346412037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45392.40825231482</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45210.33983796297</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>45294.41001157407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45146</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45405.60082175926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>45572.47766203704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45485.66964120371</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45572.44064814815</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45569.32403935185</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44308</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>45163</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45163</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45436</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45692.61747685185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45819</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45517.33597222222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45607.29688657408</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>44393</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45783.91428240741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45653.43668981481</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45709.60369212963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45736.5049537037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45568</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45054.62554398148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45632.5812962963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45796.44989583334</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45770</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>45799</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45798</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45798</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45798</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45803</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45804.5856712963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45811.58952546296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>45812.44297453704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45813</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>45813.62518518518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -575,7 +575,7 @@
         <v>44958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45539</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44512</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44552</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45877</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>45790</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45883.41177083334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45290.63932870371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45817</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45538.31063657408</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>46047</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>46030.60471064815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45876</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45369.55047453703</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45342</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45722</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44274</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45751</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45678.63605324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>45931.59987268518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>45678.65004629629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>45877</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45678.62517361111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>46021.95730324074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>45229</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>45827.37033564815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45876</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>45861.33072916666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45940.46645833334</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45342</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>45967.6815162037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>46036.58131944444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>46036.51528935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44908</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>46070.61984953703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>46073.49243055555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>45796</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>45798</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>44453</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44996</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>45232.45802083334</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44950</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>45876</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45068</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>45074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>46045.63675925926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>46050.53731481481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45369.51660879629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>44874</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>44362</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>45251</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45432.43915509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44463</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44505</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45541.64898148148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44420</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>44705</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44473</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44469.33269675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45258</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45177</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45251</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>45819.66582175926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45497.8249074074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>45090</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45793</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45841</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44789.67186342592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>44798</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45950.51105324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45954.67348379629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45952</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>45967.67916666667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45742.62967592593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>45427.56424768519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>46035.40274305556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>46036.59011574074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>46036.62027777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>46029.30613425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>45678.55945601852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>46050.46430555556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>46020</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>46024</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>46070.62511574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>46029.68619212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>45062</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>45799</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>44356.46612268518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>44827.49356481482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>44886</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44799</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>44623</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44575</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44286</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>44305</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>44287</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44458.91336805555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44337.55547453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44742.52768518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>44687.38893518518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>44733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44337.57040509259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>44425.46491898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44301.42034722222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44371</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>44389</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44673</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44435.51628472222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44279</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>44376</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44589.62333333334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44505</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44691.40365740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44832</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44466</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44399</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>44630.62027777778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44747.4846875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>44461</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>44664.33770833333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44670.61141203704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44354.60869212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>44441</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>44307.38413194445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44510</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44342.48758101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44498.59743055556</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44438</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44487</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>44293</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44804</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44832</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44532.61158564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44781.47965277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44587</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44792</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44798</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44792</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44452</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44427</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44280</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44384</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44454</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44799</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>44742.52592592593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44546.58559027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44341</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44337.3552662037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44273.52013888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>44452</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>44579</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44495</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44705</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45252.50012731482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45534.46560185185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45534.46862268518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45369.58125</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44785.59181712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>45489.65583333333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45016</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45215</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44929.6525</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44679.54954861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45213</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44837</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45183.62677083333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44606.54209490741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45425</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44747.36041666667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45246</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>45569.60569444444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45559.58381944444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45586.55450231482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45559.59444444445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45015</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44494</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>45110</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>45110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>45475.39222222222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>45308</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>45259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45260.38826388889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45536.65696759259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45536.66635416666</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44613.34505787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45163</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44824.35642361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45580.56954861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45208.53342592593</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45475.38892361111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45693.43435185185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45813.91087962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45239.43166666666</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44992</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44992</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45565.78232638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45281</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45656.42575231481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45246</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45664.53787037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45264.36013888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45670.40074074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45477.50732638889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45820.6316087963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>45167.4177199074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44537.4658449074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45447.90041666666</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45890.43620370371</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>44917.57221064815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>45099</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>45891</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>45891.36770833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>45831.36956018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>45833.69518518518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45694.67778935185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45903.5753125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45839.35089120371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44935</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>45632</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>45470</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45384.60384259259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45079</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45517.33768518519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>45341.68972222223</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45915</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45215</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44987.42900462963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44867</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45861.33846064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45861.44006944444</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44704.390625</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45369.40248842593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>44494</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45237</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45873.39715277778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45873.43974537037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45929.55321759259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45929.56319444445</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45873.39479166667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45874</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45527.35987268519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45299.66493055555</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45875.92728009259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45875.93337962963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45875.93008101852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44610</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45877.53936342592</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45202</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45880.65918981482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45880.65695601852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>45880.64846064815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45939.32263888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>45883.57024305555</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45882.56737268518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44999</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45358</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45536.67121527778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45223.35689814815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45223</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45437.55819444444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45947</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45267.50777777778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45950.59743055556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45950.61881944445</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45952.67065972222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44337.31189814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>45182.63990740741</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>45954.41559027778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>45957.38642361111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>45954.57519675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>45954.44155092593</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45958.50596064814</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>45258</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45958.49377314815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>44977</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44529</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45946.34670138889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>45709</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>44977</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45184</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>45607.37652777778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45116</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45966.68452546297</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45139</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44264.51380787037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45688</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45974.45929398148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45707.56586805556</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45978.53640046297</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>45981.42581018519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45981.42233796296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>45036</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>45194</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45982.43648148148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44280</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45986.60123842592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44732.41245370371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>44274</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>44498.61825231482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44565</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>46021.94106481481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45258</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>46034.35226851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>46035.56564814815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>44981</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>46034.45421296296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45575.36628472222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>46035.56457175926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45439.35818287037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>46036.54097222222</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45624.90174768519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>45342</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>46036.4325</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>46035</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>46036.52315972222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>46037.36643518518</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>46036.46664351852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23018,7 +23018,7 @@
         <v>45664.41989583334</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44992.38239583333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>45687.86734953704</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>45999.40050925926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>46038.45591435185</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>45551.4868287037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45617.48462962963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45692.36865740741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>46043.37614583333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>45566.36052083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>45261</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>45742.66197916667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>45512.80895833333</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>46042.49667824074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44421.50993055556</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>46044.61814814815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>46002.61444444444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>44942.31047453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>44299</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>46048.56770833334</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>46051.67444444444</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>45232.45122685185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>44468</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>46036</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>46035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>46036</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>46055.59050925926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>46036</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44992</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>46055.65570601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>46055.65700231482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>45251.58048611111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24882,7 +24882,7 @@
         <v>46055.58623842592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>44879</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44494.46709490741</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>46047</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45541.62574074074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>45541.64743055555</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45671.34664351852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>46036.61548611111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>46057.48369212963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>46042.58100694444</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45411.59621527778</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>44438</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>46020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>46060.48337962963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45719.65857638889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>46021</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>46020</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44384</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44493</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>45702.44947916667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45411.58637731482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44434</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44500</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>46064.62700231482</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44420</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>46056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>46041</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>46067.45509259259</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>46062</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44341.47728009259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>46065</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>46058</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>46066.44671296296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44601</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>46056</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45631.47834490741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45744.49254629629</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>46027.63039351852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>46049</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>46056</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>46071.45515046296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>46071.46274305556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>46056</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>46036</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>46071.66130787037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>46071.53571759259</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27529,7 +27529,7 @@
         <v>45068.77065972222</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>46058</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45672</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>46071.45420138889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45477.51149305556</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>46070.63092592593</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>46047.35318287037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>46029</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>44987</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>46029.67885416667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>46058</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>46058</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45666.93782407408</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>46049</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>46029.38891203704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>46065</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>46029</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>44799</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>46071.46711805555</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>46021</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>46030.61505787037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45719.64394675926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>46072.53517361111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>46036.52232638889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>46030.60996527778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>46030.67846064815</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>46030.63354166667</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>46036</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>46073.37574074074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>46073.38032407407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45091.55979166667</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>45757.63572916666</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45401.53269675926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>45273.60155092592</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>45485.66295138889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>45485.71377314815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>45709.50549768518</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>45251</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>45666.96104166667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45223</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44438</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44524</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44837.57366898148</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45643.32780092592</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>45054.62822916666</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>45342.56981481481</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45258.38181712963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45188</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>45542.82690972222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45076.51174768519</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44526.3409375</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45384.61032407408</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44550.27520833333</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>44972</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44294.6346412037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45392.40825231482</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45617</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45258</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45210.33983796297</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>45294.41001157407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45146</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44467</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45405.60082175926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>45572.47766203704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45485.66964120371</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45572.44064814815</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45569.32403935185</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44308</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>45163</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45163</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45436</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45692.61747685185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45819</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45517.33597222222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45607.29688657408</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>44393</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45783.91428240741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45653.43668981481</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45709.60369212963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45736.5049537037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45568</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45054.62554398148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45632.5812962963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45796.44989583334</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45770</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>45799</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45798</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45798</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45798</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45803</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45804.5856712963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45811.58952546296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>45812.44297453704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45813</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>45813.62518518518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>

--- a/Översikt BORLÄNGE.xlsx
+++ b/Översikt BORLÄNGE.xlsx
@@ -575,7 +575,7 @@
         <v>44958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45539</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45105</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44512</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44552</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45877</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>45790</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45883.41177083334</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45290.63932870371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45538.31063657408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>46047</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>46030.60471064815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45876</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>45722</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>45369.55047453703</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44274</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45678.65004629629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>45751</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45208</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>45931.59987268518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45678.62517361111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>46021.95730324074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>45678.63605324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>46036</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>45877</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45342</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45827.37033564815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>45861.33072916666</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45876</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45940.46645833334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>45229</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>45967.6815162037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>46036.51528935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44908</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>46070.61984953703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>46073.49243055555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>46036.58131944444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45687.86734953704</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>45796</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45798</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44453</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>45432.43915509259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44505</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>44362</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44950</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45876</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45251</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>44874</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45068</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>45232.45802083334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>46050.53731481481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>46045.63675925926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>44463</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44996</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>45074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45369.51660879629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44420</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>45541.64898148148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44705</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44473</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>44454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>44469.33269675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>44410</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>45427.56424768519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>45819.66582175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>45497.8249074074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45793</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>45841</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>44798</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45950.51105324074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45062</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>45954.67348379629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>45952</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45967.67916666667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>45251</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>45678.55945601852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>45177</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>44789.67186342592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>46029.30613425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>46050.46430555556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>46020</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>46024</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>46070.62511574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>46029.68619212963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45742.62967592593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>46036.59011574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>46036.62027777778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>45258</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>45090</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>45799</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>44356.46612268518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>44827.49356481482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44799</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44886</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44286</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44305</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44287</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44458.91336805555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44742.52768518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44337.55547453704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44687.38893518518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44337.57040509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44425.46491898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44301.42034722222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44371</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44389</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44673</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44435.51628472222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44279</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44376</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44589.62333333334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44691.40365740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44505</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44832</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44466</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44399</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44630.62027777778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44747.4846875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44461</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44664.33770833333</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44670.61141203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44354.60869212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44441</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44494</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44307.38413194445</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44510</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44342.48758101852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44498.59743055556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44438</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>44487</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
         <v>44293</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44832</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>44532.61158564815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44781.47965277778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>44587</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         <v>44792</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44805</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44798</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44792</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44452</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>44427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>44384</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>44280</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>44454</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>44799</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>44742.52592592593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>44546.58559027778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>44341</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>44452</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>44337.3552662037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>44273.52013888889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44579</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44495</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44705</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44337.31189814815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45512.80895833333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>44420</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44294.6346412037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45251</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45223</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45541.62574074074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45541.64743055555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>45719.64394675926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45411.59621527778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45232.45122685185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45384.60384259259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>45117</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14126,7 +14126,7 @@
         <v>45258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>44494</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45139</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45294.41001157407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45110</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44942.31047453704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>45246</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>45489.65583333333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>45485.66295138889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>45485.71377314815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44981</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45569.60569444444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45632</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45551.4868287037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>45475.38892361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>45804.5856712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45527.35987268519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45565.78232638889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45811.58952546296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45812.44297453704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45813.62518518518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45890.43620370371</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45813</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45572.44064814815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45813.91087962963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44992</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45369.58125</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>45891</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>45820.6316087963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>45586.55450231482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>45891.36770833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>45202</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>45213</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>45264.36013888889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>45384.61032407408</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44977</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45831.36956018519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44755</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>45903.5753125</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45091.55979166667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44704.390625</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45833.69518518518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45251.58048611111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>45559.58381944444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45559.59444444445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>45015</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>45068.77065972222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>45470</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44732.41245370371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44785.59181712963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45839.35089120371</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45569.32403935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45580.56954861111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44494.46709490741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45517.33768518519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17539,7 +17539,7 @@
         <v>45016</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44992.38239583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45666.96104166667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45915</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45707.56586805556</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>45631.47834490741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>45861.33846064815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>45861.44006944444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>45237</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44308</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>45873.39715277778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45929.55321759259</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>45929.56319444445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>45873.43974537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>45873.39479166667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>45534.46560185185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>45534.46862268518</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>45875.92728009259</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>45875.93337962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>45875.93008101852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>45692.36865740741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>45874</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45877.53936342592</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45880.65695601852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>45880.65918981482</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>45880.64846064815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45477.50732638889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>45882.56737268518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>45656.42575231481</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>45757.63572916666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>45215</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45744.49254629629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44421.50993055556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>45670.40074074074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45688</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44434</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45939.32263888889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45883.57024305555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45261</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44929.6525</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44999</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44837.57366898148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45947</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44468</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>44917.57221064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45950.61881944445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45079</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45950.59743055556</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>44299</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45405.60082175926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>45952.67065972222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>45342.56981481481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>45342</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45536.65696759259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45542.82690972222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45954.44155092593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45957.38642361111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>45954.41559027778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>45958.49377314815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>45954.57519675926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45958.50596064814</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44500</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45664.41989583334</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45110</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45946.34670138889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45575.36628472222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45966.68452546297</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45709</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>45963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>45392.40825231482</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45974.45929398148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45536.66635416666</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>45260.38826388889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>45566.36052083333</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45664.53787037037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>45978.53640046297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45401.53269675926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45116</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45981.42581018519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45981.42233796296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>45982.43648148148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>45163</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45163</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44493</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45694.67778935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45986.60123842592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>45411.58637731482</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44606.54209490741</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>45223.35689814815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>45644</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>45188</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>45341.68972222223</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>45572.47766203704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>44550.27520833333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44613.34505787037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45643.32780092592</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45054.62822916666</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>46035.56457175926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45624.90174768519</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>45999.40050925926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>46042.49667824074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>45076.51174768519</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45223</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45617.48462962963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         <v>44610</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>46002.61444444444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>45672</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45208.53342592593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>46044.61814814815</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>46043.37614583333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>45617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45666.93782407408</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>45210.33983796297</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45163</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>46048.56770833334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>45140</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>45526</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44679.54954861111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>46051.67444444444</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>46055.65570601852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>46055.59050925926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>46055.65700231482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>46055.58623842592</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>46042.58100694444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>46057.48369212963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44824.35642361111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>46047</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>45719.65857638889</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>45273.60155092592</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>46020</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>45475.39222222222</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>45246</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>46020</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>46021</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>45239.43166666666</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>45299.66493055555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>46064.62700231482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>45182.63990740741</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>45369.40248842593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>46065</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>46062</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>46041</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>46058</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>46049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>46066.44671296296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>46056</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>46056</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>46056</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>44384</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>46027.63039351852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>46047.35318287037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45259</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>46067.45509259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>46056</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>44341.47728009259</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>45258.38181712963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>46058</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>46049</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>46070.63092592593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>46058</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>46058</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>46071.45515046296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>46071.53571759259</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>46030.63354166667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>46021</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>46029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>46071.66130787037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>46030.67846064815</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>46030.60996527778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>46071.46711805555</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>46071.46274305556</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45184</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>46065</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>46030.61505787037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>46029</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>46029.67885416667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>46029.38891203704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>46071.45420138889</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45146</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44799</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>46076.66793981481</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>44537.4658449074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>46073.37574074074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>46073.38032407407</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>44867</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>44526.3409375</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>46034.45421296296</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>46076.70033564815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45536.67121527778</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>44438</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>46036</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>46036.52315972222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>46036.54097222222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>46077.39891203704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>44524</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>46036.52232638889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>46021</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>46036</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>46036.4325</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>44264.51380787037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>44438</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29228,7 +29228,7 @@
         <v>46035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29285,7 +29285,7 @@
         <v>46035</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>46036.46664351852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>45194</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>46036</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>46036</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44992</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>46072.53517361111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45436</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29756,7 +29756,7 @@
         <v>46063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>45447.90041666666</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29875,7 +29875,7 @@
         <v>46060</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29932,7 +29932,7 @@
         <v>45308</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>46037.36643518518</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
         <v>44565</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30103,7 +30103,7 @@
         <v>46080.46466435185</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>46038.45591435185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44747.36041666667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>45425</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44467</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>45477.51149305556</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30445,7 +30445,7 @@
         <v>44494</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30522,7 +30522,7 @@
         <v>45439.35818287037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30584,7 +30584,7 @@
         <v>44601</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>45692.61747685185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>45742.66197916667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30755,7 +30755,7 @@
         <v>44837</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30812,7 +30812,7 @@
         <v>45281</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44280</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30931,7 +30931,7 @@
         <v>44529</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30988,7 +30988,7 @@
         <v>44972</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44498.61825231482</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>45693.43435185185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>45709.50549768518</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44879</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>45702.44947916667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>45258</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>45167.4177199074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>44987.42900462963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31625,7 +31625,7 @@
         <v>45252.50012731482</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31682,7 +31682,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31739,7 +31739,7 @@
         <v>45437.55819444444</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31796,7 +31796,7 @@
         <v>45671.34664351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>45607.37652777778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31910,7 +31910,7 @@
         <v>45267.50777777778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31967,7 +31967,7 @@
         <v>45036</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>45358</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>45485.66964120371</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>45183.62677083333</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>45215</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45819</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45517.33597222222</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45783.91428240741</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>45709.60369212963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45653.43668981481</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>45068</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44393</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45607.29688657408</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>45736.5049537037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32790,7 +32790,7 @@
         <v>45054.62554398148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32847,7 +32847,7 @@
         <v>45568</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>45632.5812962963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32961,7 +32961,7 @@
         <v>45796.44989583334</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>45798</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33075,7 +33075,7 @@
         <v>45770</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
         <v>45798</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33189,7 +33189,7 @@
         <v>45798</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33246,7 +33246,7 @@
         <v>45799</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>45803</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
